--- a/src/index.xlsx
+++ b/src/index.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ruthoyen\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8FCB3-7DC9-42E7-BD24-A606BBF43099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF5D318-A30D-4AD5-B2B9-2E99F8AD9ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21495" yWindow="-25920" windowWidth="32400" windowHeight="20730" xr2:uid="{D0EE71BD-B30E-4D43-B36C-EBD3A221A804}"/>
+    <workbookView xWindow="8790" yWindow="-23820" windowWidth="43200" windowHeight="23445" xr2:uid="{D0EE71BD-B30E-4D43-B36C-EBD3A221A804}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="sub" sheetId="2" r:id="rId2"/>
+    <sheet name="RO-RL78-EASY-WRITER" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -320,153 +317,384 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>111919</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>23813</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>21431</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>88106</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CB99D6-86D4-0991-142D-D072953F455E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C625637B-00EF-1B8D-BAE7-AB88A64E5918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="309563" y="244078"/>
+          <a:ext cx="309562" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E454936-A982-4C09-A299-5A16D8C79B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="172641" y="535781"/>
+          <a:ext cx="1756172" cy="440529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>はこちら</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
-            <a:ln w="9525">
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>125014</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC44425F-0DD8-A3FD-BEEF-B92D215443EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333374" y="3637361"/>
+          <a:ext cx="2732484" cy="440529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>136922</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>119063</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>28</xdr:col>
-          <xdr:colOff>136922</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>40481</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F0B3C3-62EB-3C30-9605-F1F3C9CB6F73}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+            </a:rPr>
+            <a:t>部品代</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RL78</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ライターで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Renesas Flash Programmer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>で利用することができます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
-            <a:ln w="9525">
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D504295-9584-755B-0C6D-B3644D483255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="702468" y="3357564"/>
+          <a:ext cx="2280048" cy="440529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+            </a:rPr>
+            <a:t>RO-RL78-EASY-WRITER</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39749</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83370DBE-6DA4-AF1F-DEC7-6E1497A5BB00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="440532" y="1208484"/>
+          <a:ext cx="2385280" cy="2239566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Package">
-    <oleItems>
-      <oleItem name="'" icon="1" preferPic="1"/>
-    </oleItems>
-  </oleLink>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,14 +1013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1848BBA5-B144-45EF-9004-69CB42AAC92D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1848BBA5-B144-45EF-9004-69CB42AAC92D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3502,59 +3730,6 @@
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1026">
-          <objectPr defaultSize="0" dde="1" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1026"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -3565,9 +3740,7 @@
   </sheetPr>
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/index.xlsx
+++ b/src/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ruthoyen\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF5D318-A30D-4AD5-B2B9-2E99F8AD9ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B57D1D-5259-44D5-B3A4-3D91099B1BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="-23820" windowWidth="43200" windowHeight="23445" xr2:uid="{D0EE71BD-B30E-4D43-B36C-EBD3A221A804}"/>
+    <workbookView xWindow="14175" yWindow="-29790" windowWidth="43200" windowHeight="23445" xr2:uid="{D0EE71BD-B30E-4D43-B36C-EBD3A221A804}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -186,10 +186,10 @@
       <xdr:rowOff>125015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>137519</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66081</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -325,10 +325,10 @@
       <xdr:rowOff>89297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>89296</xdr:rowOff>
+      <xdr:rowOff>17859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -651,10 +651,10 @@
       <xdr:rowOff>125015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>39749</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1020,16 +1020,16 @@
   <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AM17" sqref="AM17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="4"/>
-    <col min="2" max="16384" width="2.28515625" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="4"/>
+    <col min="2" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="AO1" s="8"/>
     </row>
-    <row r="2" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
     </row>
-    <row r="3" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1202,7 +1202,7 @@
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
     </row>
-    <row r="4" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
     </row>
-    <row r="5" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1290,7 +1290,7 @@
       <c r="AN5" s="6"/>
       <c r="AO5" s="6"/>
     </row>
-    <row r="6" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
     </row>
-    <row r="7" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1378,7 +1378,7 @@
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
     </row>
-    <row r="8" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
     </row>
-    <row r="9" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1466,7 +1466,7 @@
       <c r="AN9" s="6"/>
       <c r="AO9" s="6"/>
     </row>
-    <row r="10" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
     </row>
-    <row r="11" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1554,7 +1554,7 @@
       <c r="AN11" s="6"/>
       <c r="AO11" s="6"/>
     </row>
-    <row r="12" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
     </row>
-    <row r="13" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1642,7 +1642,7 @@
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
     </row>
-    <row r="14" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
     </row>
-    <row r="15" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1730,7 +1730,7 @@
       <c r="AN15" s="6"/>
       <c r="AO15" s="6"/>
     </row>
-    <row r="16" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -1775,7 +1775,7 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
     </row>
-    <row r="17" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1818,7 +1818,7 @@
       <c r="AN17" s="6"/>
       <c r="AO17" s="6"/>
     </row>
-    <row r="18" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>9</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
     </row>
-    <row r="19" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1906,7 +1906,7 @@
       <c r="AN19" s="6"/>
       <c r="AO19" s="6"/>
     </row>
-    <row r="20" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>10</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
     </row>
-    <row r="21" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1994,7 +1994,7 @@
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
     </row>
-    <row r="22" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>11</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
     </row>
-    <row r="23" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2082,7 +2082,7 @@
       <c r="AN23" s="6"/>
       <c r="AO23" s="6"/>
     </row>
-    <row r="24" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>12</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
     </row>
-    <row r="25" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2170,7 +2170,7 @@
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
     </row>
-    <row r="26" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>13</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
     </row>
-    <row r="27" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2258,7 +2258,7 @@
       <c r="AN27" s="6"/>
       <c r="AO27" s="6"/>
     </row>
-    <row r="28" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>14</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
     </row>
-    <row r="29" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2346,7 +2346,7 @@
       <c r="AN29" s="6"/>
       <c r="AO29" s="6"/>
     </row>
-    <row r="30" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>15</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
     </row>
-    <row r="31" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2434,7 +2434,7 @@
       <c r="AN31" s="6"/>
       <c r="AO31" s="6"/>
     </row>
-    <row r="32" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>16</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
     </row>
-    <row r="33" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2522,7 +2522,7 @@
       <c r="AN33" s="6"/>
       <c r="AO33" s="6"/>
     </row>
-    <row r="34" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>17</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
     </row>
-    <row r="35" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2610,7 +2610,7 @@
       <c r="AN35" s="6"/>
       <c r="AO35" s="6"/>
     </row>
-    <row r="36" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>18</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
     </row>
-    <row r="37" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2698,7 +2698,7 @@
       <c r="AN37" s="6"/>
       <c r="AO37" s="6"/>
     </row>
-    <row r="38" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>19</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
     </row>
-    <row r="39" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2786,7 +2786,7 @@
       <c r="AN39" s="6"/>
       <c r="AO39" s="6"/>
     </row>
-    <row r="40" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>20</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
     </row>
-    <row r="41" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2874,7 +2874,7 @@
       <c r="AN41" s="6"/>
       <c r="AO41" s="6"/>
     </row>
-    <row r="42" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>21</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="AN42" s="5"/>
       <c r="AO42" s="5"/>
     </row>
-    <row r="43" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2962,7 +2962,7 @@
       <c r="AN43" s="6"/>
       <c r="AO43" s="6"/>
     </row>
-    <row r="44" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>22</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
     </row>
-    <row r="45" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -3050,7 +3050,7 @@
       <c r="AN45" s="6"/>
       <c r="AO45" s="6"/>
     </row>
-    <row r="46" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>23</v>
       </c>
@@ -3095,7 +3095,7 @@
       <c r="AN46" s="5"/>
       <c r="AO46" s="5"/>
     </row>
-    <row r="47" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -3138,7 +3138,7 @@
       <c r="AN47" s="6"/>
       <c r="AO47" s="6"/>
     </row>
-    <row r="48" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>24</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
     </row>
-    <row r="49" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -3226,7 +3226,7 @@
       <c r="AN49" s="6"/>
       <c r="AO49" s="6"/>
     </row>
-    <row r="50" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>25</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="AN50" s="5"/>
       <c r="AO50" s="5"/>
     </row>
-    <row r="51" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -3314,7 +3314,7 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="6"/>
     </row>
-    <row r="52" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>26</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="AN52" s="5"/>
       <c r="AO52" s="5"/>
     </row>
-    <row r="53" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -3402,7 +3402,7 @@
       <c r="AN53" s="6"/>
       <c r="AO53" s="6"/>
     </row>
-    <row r="54" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>27</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
     </row>
-    <row r="55" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3490,7 +3490,7 @@
       <c r="AN55" s="6"/>
       <c r="AO55" s="6"/>
     </row>
-    <row r="56" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>28</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="AN56" s="5"/>
       <c r="AO56" s="5"/>
     </row>
-    <row r="57" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -3578,7 +3578,7 @@
       <c r="AN57" s="6"/>
       <c r="AO57" s="6"/>
     </row>
-    <row r="58" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>29</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="AN58" s="5"/>
       <c r="AO58" s="5"/>
     </row>
-    <row r="59" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3666,11 +3666,11 @@
       <c r="AN59" s="6"/>
       <c r="AO59" s="6"/>
     </row>
-    <row r="61" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
     </row>
-    <row r="62" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
     </row>
